--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_137.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_137.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,88 +488,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D', 'A', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[['F', 'C', 'C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:32.351768', '0:00:43.926916')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:00.276984', '0:01:27.246961')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1277173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -573,630 +584,602 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(68.82, 84.54)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:34.560000', '0:00:36.420000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[('0:00:10.200000', '0:00:18.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:17.900000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jaah_27</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3869047619047619</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[['D', 'D', 'D', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[('0:00:00.325509', '0:00:04.348503')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:10.860000', '0:00:16.050000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.460000', '0:00:13.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.75</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(49.48, 52.18)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(55.002834, 59.124376)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
